--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cd2-Cd48.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cd2-Cd48.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Cd48</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,55 +528,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.291774555157554</v>
+        <v>0.7139163333333333</v>
       </c>
       <c r="H2">
-        <v>0.291774555157554</v>
+        <v>2.141749</v>
       </c>
       <c r="I2">
-        <v>0.3526276881733286</v>
+        <v>0.5325697612629201</v>
       </c>
       <c r="J2">
-        <v>0.3526276881733286</v>
+        <v>0.5325697612629202</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>84.7372220107259</v>
+        <v>0.06575866666666667</v>
       </c>
       <c r="N2">
-        <v>84.7372220107259</v>
+        <v>0.197276</v>
       </c>
       <c r="O2">
-        <v>0.4332802098694759</v>
+        <v>0.0003210775944521127</v>
       </c>
       <c r="P2">
-        <v>0.4332802098694759</v>
+        <v>0.000321193332710493</v>
       </c>
       <c r="Q2">
-        <v>24.72416525746645</v>
+        <v>0.04694618619155556</v>
       </c>
       <c r="R2">
-        <v>24.72416525746645</v>
+        <v>0.422515675724</v>
       </c>
       <c r="S2">
-        <v>0.1527865987375279</v>
+        <v>0.0001709962178242343</v>
       </c>
       <c r="T2">
-        <v>0.1527865987375279</v>
+        <v>0.0001710578565208689</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,60 +590,60 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.291774555157554</v>
+        <v>0.7139163333333333</v>
       </c>
       <c r="H3">
-        <v>0.291774555157554</v>
+        <v>2.141749</v>
       </c>
       <c r="I3">
-        <v>0.3526276881733286</v>
+        <v>0.5325697612629201</v>
       </c>
       <c r="J3">
-        <v>0.3526276881733286</v>
+        <v>0.5325697612629202</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>110.834189008145</v>
+        <v>93.51811733333334</v>
       </c>
       <c r="N3">
-        <v>110.834189008145</v>
+        <v>280.554352</v>
       </c>
       <c r="O3">
-        <v>0.5667197901305242</v>
+        <v>0.4566177155519742</v>
       </c>
       <c r="P3">
-        <v>0.5667197901305242</v>
+        <v>0.4567823117120824</v>
       </c>
       <c r="Q3">
-        <v>32.33859619409977</v>
+        <v>66.76411142684978</v>
       </c>
       <c r="R3">
-        <v>32.33859619409977</v>
+        <v>600.8770028416479</v>
       </c>
       <c r="S3">
-        <v>0.1998410894358007</v>
+        <v>0.2431807877599348</v>
       </c>
       <c r="T3">
-        <v>0.1998410894358007</v>
+        <v>0.2432684466976285</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -646,60 +652,60 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.535654954615192</v>
+        <v>0.7139163333333333</v>
       </c>
       <c r="H4">
-        <v>0.535654954615192</v>
+        <v>2.141749</v>
       </c>
       <c r="I4">
-        <v>0.6473723118266714</v>
+        <v>0.5325697612629201</v>
       </c>
       <c r="J4">
-        <v>0.6473723118266714</v>
+        <v>0.5325697612629202</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.7372220107259</v>
+        <v>111.0008776666667</v>
       </c>
       <c r="N4">
-        <v>84.7372220107259</v>
+        <v>333.002633</v>
       </c>
       <c r="O4">
-        <v>0.4332802098694759</v>
+        <v>0.5419801919638461</v>
       </c>
       <c r="P4">
-        <v>0.4332802098694759</v>
+        <v>0.5421755585810701</v>
       </c>
       <c r="Q4">
-        <v>45.38991281037283</v>
+        <v>79.24533958056855</v>
       </c>
       <c r="R4">
-        <v>45.38991281037283</v>
+        <v>713.2080562251169</v>
       </c>
       <c r="S4">
-        <v>0.280493611131948</v>
+        <v>0.2886422614434171</v>
       </c>
       <c r="T4">
-        <v>0.280493611131948</v>
+        <v>0.2887463077961109</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -708,55 +714,303 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.7139163333333333</v>
+      </c>
+      <c r="H5">
+        <v>2.141749</v>
+      </c>
+      <c r="I5">
+        <v>0.5325697612629201</v>
+      </c>
+      <c r="J5">
+        <v>0.5325697612629202</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.2213985</v>
+      </c>
+      <c r="N5">
+        <v>0.442797</v>
+      </c>
+      <c r="O5">
+        <v>0.001081014889727682</v>
+      </c>
+      <c r="P5">
+        <v>0.0007209363741367839</v>
+      </c>
+      <c r="Q5">
+        <v>0.1580600053255</v>
+      </c>
+      <c r="R5">
+        <v>0.9483600319529999</v>
+      </c>
+      <c r="S5">
+        <v>0.0005757158417439334</v>
+      </c>
+      <c r="T5">
+        <v>0.0003839489126597823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.535654954615192</v>
-      </c>
-      <c r="H5">
-        <v>0.535654954615192</v>
-      </c>
-      <c r="I5">
-        <v>0.6473723118266714</v>
-      </c>
-      <c r="J5">
-        <v>0.6473723118266714</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>110.834189008145</v>
-      </c>
-      <c r="N5">
-        <v>110.834189008145</v>
-      </c>
-      <c r="O5">
-        <v>0.5667197901305242</v>
-      </c>
-      <c r="P5">
-        <v>0.5667197901305242</v>
-      </c>
-      <c r="Q5">
-        <v>59.36888248296952</v>
-      </c>
-      <c r="R5">
-        <v>59.36888248296952</v>
-      </c>
-      <c r="S5">
-        <v>0.3668787006947235</v>
-      </c>
-      <c r="T5">
-        <v>0.3668787006947235</v>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.6265959999999999</v>
+      </c>
+      <c r="H6">
+        <v>1.879788</v>
+      </c>
+      <c r="I6">
+        <v>0.4674302387370798</v>
+      </c>
+      <c r="J6">
+        <v>0.4674302387370799</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.06575866666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.197276</v>
+      </c>
+      <c r="O6">
+        <v>0.0003210775944521127</v>
+      </c>
+      <c r="P6">
+        <v>0.000321193332710493</v>
+      </c>
+      <c r="Q6">
+        <v>0.04120411749866667</v>
+      </c>
+      <c r="R6">
+        <v>0.370837057488</v>
+      </c>
+      <c r="S6">
+        <v>0.0001500813766278783</v>
+      </c>
+      <c r="T6">
+        <v>0.0001501354761896241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.6265959999999999</v>
+      </c>
+      <c r="H7">
+        <v>1.879788</v>
+      </c>
+      <c r="I7">
+        <v>0.4674302387370798</v>
+      </c>
+      <c r="J7">
+        <v>0.4674302387370799</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>93.51811733333334</v>
+      </c>
+      <c r="N7">
+        <v>280.554352</v>
+      </c>
+      <c r="O7">
+        <v>0.4566177155519742</v>
+      </c>
+      <c r="P7">
+        <v>0.4567823117120824</v>
+      </c>
+      <c r="Q7">
+        <v>58.59807824859733</v>
+      </c>
+      <c r="R7">
+        <v>527.3827042373759</v>
+      </c>
+      <c r="S7">
+        <v>0.2134369277920393</v>
+      </c>
+      <c r="T7">
+        <v>0.2135138650144539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.6265959999999999</v>
+      </c>
+      <c r="H8">
+        <v>1.879788</v>
+      </c>
+      <c r="I8">
+        <v>0.4674302387370798</v>
+      </c>
+      <c r="J8">
+        <v>0.4674302387370799</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>111.0008776666667</v>
+      </c>
+      <c r="N8">
+        <v>333.002633</v>
+      </c>
+      <c r="O8">
+        <v>0.5419801919638461</v>
+      </c>
+      <c r="P8">
+        <v>0.5421755585810701</v>
+      </c>
+      <c r="Q8">
+        <v>69.55270594242266</v>
+      </c>
+      <c r="R8">
+        <v>625.974353481804</v>
+      </c>
+      <c r="S8">
+        <v>0.2533379305204289</v>
+      </c>
+      <c r="T8">
+        <v>0.2534292507849593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.6265959999999999</v>
+      </c>
+      <c r="H9">
+        <v>1.879788</v>
+      </c>
+      <c r="I9">
+        <v>0.4674302387370798</v>
+      </c>
+      <c r="J9">
+        <v>0.4674302387370799</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.2213985</v>
+      </c>
+      <c r="N9">
+        <v>0.442797</v>
+      </c>
+      <c r="O9">
+        <v>0.001081014889727682</v>
+      </c>
+      <c r="P9">
+        <v>0.0007209363741367839</v>
+      </c>
+      <c r="Q9">
+        <v>0.138727414506</v>
+      </c>
+      <c r="R9">
+        <v>0.8323644870359999</v>
+      </c>
+      <c r="S9">
+        <v>0.0005052990479837483</v>
+      </c>
+      <c r="T9">
+        <v>0.0003369874614770016</v>
       </c>
     </row>
   </sheetData>
